--- a/analysis6脚本Flag关系.xlsx
+++ b/analysis6脚本Flag关系.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaom\Desktop\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2FBFF3-1B72-4BCC-BBC3-2BB8B5DD6A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7777B662-F25B-4EE3-B620-13C2DC023341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31380" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="94">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,185 +175,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24A27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUTOFFDIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1L2SUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7A36A38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7A36A39</t>
+  </si>
+  <si>
+    <t>7A36A40</t>
+  </si>
+  <si>
+    <t>7A36A42 (30A36A42)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(30A36A42)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!38A36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36!7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36A38A!7A!47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2QTEMPALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENTCOUNTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QYEVCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOOSEFV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCEOLDTRIGSETTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCENEWTRIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGESOWOL1CHISQY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELCHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTASYCHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCCHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSELTWIKI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARDIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNFOLDBIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEVENYEARFLUX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIVEYEARS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOCUTOFFEFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUMINIUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGNESIUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SODIUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICKEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COBALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANGANESE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZSELECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGESTCHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNDERCUTOFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8L9SURECALMIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8L9SUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1L2SURNEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment?(ISS Event count)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMSSOFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24A27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUTOFFDIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1L2SUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7A36A38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7A36A39</t>
-  </si>
-  <si>
-    <t>7A36A40</t>
-  </si>
-  <si>
-    <t>7A36A42 (30A36A42)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(30A36A42)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!38A36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36!7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36A38A!7A!47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2QTEMPALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVENTCOUNTING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QYEVCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOOSEFV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORCEOLDTRIGSETTING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORCENEWTRIG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIGESOWOL1CHISQY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELCHECK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXTASYCHECK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCCHECK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSELTWIKI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARDIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNFOLDBIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEVENYEARFLUX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIVEYEARS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOCUTOFFEFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALUMINIUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAGNESIUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SODIUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NICKEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COBALT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANGANESE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BZSELECTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIGESTCHECK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNDERCUTOFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L8L9SURECALMIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L8L9SUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1L2SURNEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment?(ISS Event count)</t>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis6.c</t>
+  </si>
+  <si>
+    <t>analysis6.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeCalN9.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelEvent14.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoMan.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFSRTI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +451,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -435,11 +474,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,6 +526,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -760,7 +838,7 @@
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -771,10 +849,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -785,8 +866,11 @@
       <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -797,8 +881,11 @@
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -809,8 +896,11 @@
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -821,8 +911,11 @@
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -833,8 +926,11 @@
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -845,8 +941,11 @@
       <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -857,8 +956,11 @@
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -869,8 +971,11 @@
       <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -883,8 +988,11 @@
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -895,8 +1003,11 @@
       <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -909,8 +1020,11 @@
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -923,8 +1037,11 @@
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -937,8 +1054,11 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -951,8 +1071,11 @@
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -965,8 +1088,11 @@
       <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -979,8 +1105,11 @@
       <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -991,8 +1120,11 @@
       <c r="D18" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1003,8 +1135,11 @@
       <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1017,8 +1152,11 @@
       <c r="D20" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1031,8 +1169,11 @@
       <c r="D21" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1045,8 +1186,11 @@
       <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1059,8 +1203,11 @@
       <c r="D23" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1073,8 +1220,11 @@
       <c r="D24" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1087,8 +1237,11 @@
       <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1101,8 +1254,11 @@
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1115,39 +1271,50 @@
       <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="D29" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7">
         <v>17</v>
@@ -1155,25 +1322,31 @@
       <c r="D30" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="7">
         <v>30</v>
@@ -1181,85 +1354,106 @@
       <c r="D32" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="7">
         <v>36</v>
@@ -1267,55 +1461,67 @@
       <c r="D39" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="7">
         <v>36</v>
@@ -1323,55 +1529,67 @@
       <c r="D43" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="7">
         <v>36</v>
@@ -1379,13 +1597,16 @@
       <c r="D47" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="7">
         <v>36</v>
@@ -1393,27 +1614,33 @@
       <c r="D48" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="7">
         <v>36</v>
@@ -1421,13 +1648,16 @@
       <c r="D50" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="7">
         <v>36</v>
@@ -1435,27 +1665,33 @@
       <c r="D51" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="7">
         <v>36</v>
@@ -1463,13 +1699,16 @@
       <c r="D53" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="7">
         <v>36</v>
@@ -1477,13 +1716,16 @@
       <c r="D54" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="7">
         <v>36</v>
@@ -1491,13 +1733,16 @@
       <c r="D55" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="7">
         <v>36</v>
@@ -1505,27 +1750,33 @@
       <c r="D56" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="7">
         <v>36</v>
@@ -1533,13 +1784,16 @@
       <c r="D58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="7">
         <v>36</v>
@@ -1547,13 +1801,16 @@
       <c r="D59" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="7">
         <v>36</v>
@@ -1561,13 +1818,16 @@
       <c r="D60" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="7">
         <v>36</v>
@@ -1575,27 +1835,55 @@
       <c r="D61" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="D62" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+        <v>85</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="B63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
         <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
